--- a/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>45794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33909</v>
+        <v>34306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60806</v>
+        <v>60042</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04438622642009975</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03286596766392157</v>
+        <v>0.03325149703175176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05893594736521406</v>
+        <v>0.05819570816072332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -765,19 +765,19 @@
         <v>89735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72884</v>
+        <v>72886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110012</v>
+        <v>107476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06823381533433545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05542012665616056</v>
+        <v>0.05542159036014628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08365247039550597</v>
+        <v>0.08172346665327614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -786,19 +786,19 @@
         <v>135529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115917</v>
+        <v>111841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160238</v>
+        <v>157816</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05774986686216372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04939291598901275</v>
+        <v>0.04765618823845969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06827845696294252</v>
+        <v>0.06724612360312929</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>985929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>970917</v>
+        <v>971681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>997814</v>
+        <v>997417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9556137735799003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.941064052634786</v>
+        <v>0.9418042918392767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9671340323360785</v>
+        <v>0.9667485029682483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1204</v>
@@ -836,19 +836,19 @@
         <v>1225378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1205101</v>
+        <v>1207637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1242229</v>
+        <v>1242227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9317661846656645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9163475296044942</v>
+        <v>0.918276533346724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9445798733438394</v>
+        <v>0.9445784096398537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2197</v>
@@ -857,19 +857,19 @@
         <v>2211306</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2186597</v>
+        <v>2189019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2230918</v>
+        <v>2234994</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9422501331378362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9317215430370575</v>
+        <v>0.9327538763968706</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9506070840109869</v>
+        <v>0.9523438117615401</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>32222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22291</v>
+        <v>22230</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45516</v>
+        <v>43967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01902770649514543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01316319101984809</v>
+        <v>0.01312715703227886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02687797126142201</v>
+        <v>0.02596332743265794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>58068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45196</v>
+        <v>43964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77260</v>
+        <v>75849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03657437486549525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02846665825324644</v>
+        <v>0.02769062286923632</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04866264251688009</v>
+        <v>0.04777399217929679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -1003,19 +1003,19 @@
         <v>90290</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72814</v>
+        <v>73651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112243</v>
+        <v>109882</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02751830254933968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02219200619460129</v>
+        <v>0.02244707394036783</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03420903123125824</v>
+        <v>0.03348937905853366</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1661191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1647897</v>
+        <v>1649446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1671122</v>
+        <v>1671183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809722935048546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9731220287385779</v>
+        <v>0.9740366725673417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868368089801519</v>
+        <v>0.986872842967721</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1498</v>
@@ -1053,19 +1053,19 @@
         <v>1529605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1510413</v>
+        <v>1511824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1542477</v>
+        <v>1543709</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9634256251345048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.951337357483121</v>
+        <v>0.9522260078207038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9715333417467537</v>
+        <v>0.9723093771307637</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3115</v>
@@ -1074,19 +1074,19 @@
         <v>3190796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3168843</v>
+        <v>3171204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3208272</v>
+        <v>3207435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9724816974506603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9657909687687413</v>
+        <v>0.9665106209414659</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9778079938053986</v>
+        <v>0.9775529260596322</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7360</v>
+        <v>7338</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21869</v>
+        <v>20573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02339936531061495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01334832933897481</v>
+        <v>0.013307970913963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03966039862060426</v>
+        <v>0.03730918619864443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,7 +1199,7 @@
         <v>7151</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2999</v>
+        <v>2983</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>13833</v>
@@ -1208,10 +1208,10 @@
         <v>0.01501075430176788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006295679614794153</v>
+        <v>0.006261610513781873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02903600885674419</v>
+        <v>0.02903551266166469</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1220,19 +1220,19 @@
         <v>20054</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12510</v>
+        <v>12458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28783</v>
+        <v>29997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01951110319959398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01217178042085846</v>
+        <v>0.01212068656509374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02800434227862164</v>
+        <v>0.02918549167110119</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>538505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>529539</v>
+        <v>530835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544048</v>
+        <v>544070</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9766006346893851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9603396013793957</v>
+        <v>0.9626908138013556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9866516706610252</v>
+        <v>0.986692029086037</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1273,16 +1273,16 @@
         <v>462579</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473413</v>
+        <v>473429</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9849892456982321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9709639911432559</v>
+        <v>0.9709644873383354</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937043203852058</v>
+        <v>0.9937383894862182</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>958</v>
@@ -1291,19 +1291,19 @@
         <v>1007766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>999037</v>
+        <v>997823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1015310</v>
+        <v>1015362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9804888968004061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9719956577213783</v>
+        <v>0.9708145083288988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9878282195791416</v>
+        <v>0.9878793134349063</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>90919</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02774833934472318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -1416,19 +1416,19 @@
         <v>154955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04585544588936078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -1437,19 +1437,19 @@
         <v>245873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03694152896909649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3185624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3165176</v>
+        <v>3164028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3204249</v>
+        <v>3204406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9722516606552768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9660108608377128</v>
+        <v>0.9656605339204534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9779359928768343</v>
+        <v>0.9779837945246829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3147</v>
@@ -1487,19 +1487,19 @@
         <v>3224242</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3198128</v>
+        <v>3195809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3246760</v>
+        <v>3247909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9541445541106393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9464165810223676</v>
+        <v>0.9457301892790161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9608082737161299</v>
+        <v>0.9611481755595074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6270</v>
@@ -1508,19 +1508,19 @@
         <v>6409868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6376757</v>
+        <v>6376512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6436583</v>
+        <v>6440970</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9630584710309035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9580837011175858</v>
+        <v>0.9580469378180735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9670722784618707</v>
+        <v>0.9677314452113284</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>43913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32412</v>
+        <v>31406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61442</v>
+        <v>59659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04505524146523994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03325552412807076</v>
+        <v>0.03222278353584743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06304074412534964</v>
+        <v>0.06121146244891155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -1872,19 +1872,19 @@
         <v>101607</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83532</v>
+        <v>82605</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125191</v>
+        <v>121471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07595063155722181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06244016275122699</v>
+        <v>0.061747135567234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09358025872518383</v>
+        <v>0.09079960270590236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -1893,19 +1893,19 @@
         <v>145519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124002</v>
+        <v>123537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174562</v>
+        <v>169991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06292889616945081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05362397996906747</v>
+        <v>0.05342290934286013</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07548808957755332</v>
+        <v>0.07351144315939839</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>930730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>913201</v>
+        <v>914984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>942231</v>
+        <v>943237</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.95494475853476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9369592558746502</v>
+        <v>0.9387885375510885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9667444758719292</v>
+        <v>0.9677772164641525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1150</v>
@@ -1943,19 +1943,19 @@
         <v>1236190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1212606</v>
+        <v>1216326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1254265</v>
+        <v>1255192</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9240493684427782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9064197412748161</v>
+        <v>0.9092003972940972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.937559837248773</v>
+        <v>0.9382528644327659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2018</v>
@@ -1964,19 +1964,19 @@
         <v>2166921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2137878</v>
+        <v>2142449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2188438</v>
+        <v>2188903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9370711038305491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.924511910422447</v>
+        <v>0.9264885568406015</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9463760200309326</v>
+        <v>0.9465770906571398</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>42450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31598</v>
+        <v>30925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55690</v>
+        <v>58012</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02161473963558628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01608880702331685</v>
+        <v>0.01574620321976559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02835617242227353</v>
+        <v>0.02953846747649786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2089,19 +2089,19 @@
         <v>58599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44154</v>
+        <v>44177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75177</v>
+        <v>75512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03333651103057679</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02511913785356035</v>
+        <v>0.02513180653035681</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04276746211807371</v>
+        <v>0.04295834805281847</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -2110,19 +2110,19 @@
         <v>101049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83818</v>
+        <v>81893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122496</v>
+        <v>122881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02715098070626056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02252113846282436</v>
+        <v>0.02200373364935856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03291337589148189</v>
+        <v>0.03301686718624059</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1921507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1908267</v>
+        <v>1905945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1932359</v>
+        <v>1933032</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9783852603644138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9716438275777264</v>
+        <v>0.9704615325235022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9839111929766831</v>
+        <v>0.9842537967802345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1579</v>
@@ -2160,19 +2160,19 @@
         <v>1699204</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1682626</v>
+        <v>1682291</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1713649</v>
+        <v>1713626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9666634889694232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572325378819263</v>
+        <v>0.9570416519471815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9748808621464395</v>
+        <v>0.9748681934696432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3393</v>
@@ -2181,19 +2181,19 @@
         <v>3620711</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3599264</v>
+        <v>3598879</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3637942</v>
+        <v>3639867</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9728490192937395</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9670866241085181</v>
+        <v>0.9669831328137594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9774788615371756</v>
+        <v>0.9779962663506414</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>17824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10636</v>
+        <v>10734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28826</v>
+        <v>29513</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03704282158671612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02210335017330657</v>
+        <v>0.02230680168824742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05990588098919166</v>
+        <v>0.06133539224726974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2306,19 +2306,19 @@
         <v>14249</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7899</v>
+        <v>7803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24311</v>
+        <v>24029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03106812483988823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01722370652171777</v>
+        <v>0.01701347088867428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05300691163671118</v>
+        <v>0.05239271133967448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -2327,19 +2327,19 @@
         <v>32073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21650</v>
+        <v>21809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45646</v>
+        <v>46213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03412715320232444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02303645570254589</v>
+        <v>0.023205348680145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04856964789233983</v>
+        <v>0.04917259304678873</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>463357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452355</v>
+        <v>451668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470545</v>
+        <v>470447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9629571784132839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9400941190108083</v>
+        <v>0.9386646077527303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9778966498266934</v>
+        <v>0.9776931983117526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>399</v>
@@ -2377,19 +2377,19 @@
         <v>444382</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434320</v>
+        <v>434602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450732</v>
+        <v>450828</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9689318751601118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.946993088363289</v>
+        <v>0.9476072886603254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9827762934782822</v>
+        <v>0.9829865291113258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>821</v>
@@ -2398,19 +2398,19 @@
         <v>907740</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>894167</v>
+        <v>893600</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>918163</v>
+        <v>918004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9658728467976756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9514303521076602</v>
+        <v>0.9508274069532116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9769635442974542</v>
+        <v>0.976794651319855</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>104188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84609</v>
+        <v>83688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127771</v>
+        <v>127208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03046613110519547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02474112117112205</v>
+        <v>0.02447187629382971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03736230114942805</v>
+        <v>0.03719779710421165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -2523,19 +2523,19 @@
         <v>174454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149087</v>
+        <v>150545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200306</v>
+        <v>200931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04908356911839328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04194633394385233</v>
+        <v>0.04235647890472338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05635695144550342</v>
+        <v>0.05653287238487818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>264</v>
@@ -2544,19 +2544,19 @@
         <v>278642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248452</v>
+        <v>245338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311809</v>
+        <v>312578</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03995430817922091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03562536305428068</v>
+        <v>0.03517893512720158</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04471008668815283</v>
+        <v>0.04482045620090037</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3315594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3292011</v>
+        <v>3292574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3335173</v>
+        <v>3336094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9695338688948045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9626376988505719</v>
+        <v>0.9628022028957881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975258878828878</v>
+        <v>0.9755281237061703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3128</v>
@@ -2594,19 +2594,19 @@
         <v>3379776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3353924</v>
+        <v>3353299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3405143</v>
+        <v>3403685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9509164308816067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9436430485544965</v>
+        <v>0.9434671276151217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580536660561477</v>
+        <v>0.9576435210952758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6232</v>
@@ -2615,19 +2615,19 @@
         <v>6695370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6662203</v>
+        <v>6661434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6725560</v>
+        <v>6728674</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.960045691820779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9552899133118472</v>
+        <v>0.9551795437990996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9643746369457193</v>
+        <v>0.9648210648727984</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>58600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45573</v>
+        <v>45681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75264</v>
+        <v>75478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07768268314194024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06041420809044408</v>
+        <v>0.06055650128179653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09977411871004802</v>
+        <v>0.1000574052146875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -2979,19 +2979,19 @@
         <v>184533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158178</v>
+        <v>161509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209814</v>
+        <v>211111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1855240937233327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1590270209727009</v>
+        <v>0.1623763398664298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2109404083581186</v>
+        <v>0.2122446747894241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>224</v>
@@ -3000,19 +3000,19 @@
         <v>243133</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>214374</v>
+        <v>213886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273703</v>
+        <v>273086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1390120884054009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1225690021234216</v>
+        <v>0.1222899424946842</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1564905915839165</v>
+        <v>0.1561380207663801</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>695747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>679083</v>
+        <v>678869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>708774</v>
+        <v>708666</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9223173168580597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9002258812899523</v>
+        <v>0.899942594785312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.939585791909556</v>
+        <v>0.9394434987182034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>727</v>
@@ -3050,19 +3050,19 @@
         <v>810127</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>784846</v>
+        <v>783549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>836482</v>
+        <v>833151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8144759062766673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7890595916418809</v>
+        <v>0.7877553252105758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8409729790272991</v>
+        <v>0.8376236601335701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1430</v>
@@ -3071,19 +3071,19 @@
         <v>1505874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1475304</v>
+        <v>1475921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1534633</v>
+        <v>1535121</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8609879115945992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8435094084160836</v>
+        <v>0.8438619792336198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8774309978765785</v>
+        <v>0.8777100575053157</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>78094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60543</v>
+        <v>63235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96427</v>
+        <v>96830</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03761035631768111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02915774426924548</v>
+        <v>0.03045453119976066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04643992161792829</v>
+        <v>0.04663401647004757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>167</v>
@@ -3196,19 +3196,19 @@
         <v>179247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>151175</v>
+        <v>154338</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206119</v>
+        <v>207995</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09015108085208534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07603204506816991</v>
+        <v>0.0776228954352122</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1036660588712203</v>
+        <v>0.104609714887211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>243</v>
@@ -3217,19 +3217,19 @@
         <v>257341</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227497</v>
+        <v>227830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>288157</v>
+        <v>288807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06331141930729252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05596916463728563</v>
+        <v>0.05605101624413941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07089278200177798</v>
+        <v>0.07105263585469228</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1998291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1979958</v>
+        <v>1979555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2015842</v>
+        <v>2013150</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9623896436823189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9535600783820711</v>
+        <v>0.9533659835299525</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9708422557307544</v>
+        <v>0.9695454688002394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1741</v>
@@ -3267,19 +3267,19 @@
         <v>1809053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1782181</v>
+        <v>1780305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1837125</v>
+        <v>1833962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9098489191479147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8963339411287795</v>
+        <v>0.8953902851127895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9239679549318294</v>
+        <v>0.9223771045647879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3617</v>
@@ -3288,19 +3288,19 @@
         <v>3807344</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3776528</v>
+        <v>3775878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3837188</v>
+        <v>3836855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9366885806927074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.929107217998222</v>
+        <v>0.9289473641453078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9440308353627145</v>
+        <v>0.9439489837558606</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>16480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9540</v>
+        <v>9324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26646</v>
+        <v>28455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03013465085486528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01744365980207283</v>
+        <v>0.01704899391821818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04872282299547161</v>
+        <v>0.05203112561893982</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3413,19 +3413,19 @@
         <v>24614</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15909</v>
+        <v>16094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35890</v>
+        <v>37276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04482243080493589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02896994852864129</v>
+        <v>0.02930691147755471</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06535644171117225</v>
+        <v>0.06787999008493857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -3434,19 +3434,19 @@
         <v>41094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29117</v>
+        <v>29870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57372</v>
+        <v>58749</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03749364464230744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02656579303306967</v>
+        <v>0.02725330699997448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05234554348390142</v>
+        <v>0.05360221810512954</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>530406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520240</v>
+        <v>518431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537346</v>
+        <v>537562</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9698653491451347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9512771770045284</v>
+        <v>0.9479688743810601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9825563401979271</v>
+        <v>0.9829510060817818</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -3484,19 +3484,19 @@
         <v>524526</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>513250</v>
+        <v>511864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>533231</v>
+        <v>533046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9551775691950641</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346435582888275</v>
+        <v>0.9321200099150613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9710300514713587</v>
+        <v>0.9706930885224453</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>991</v>
@@ -3505,19 +3505,19 @@
         <v>1054933</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1038655</v>
+        <v>1037278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1066910</v>
+        <v>1066157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9625063553576926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9476544565160986</v>
+        <v>0.9463977818948706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9734342069669302</v>
+        <v>0.9727466930000256</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>153173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130778</v>
+        <v>128952</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177705</v>
+        <v>176966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0453495592772059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03871913170500587</v>
+        <v>0.0381783104957681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05261239312178047</v>
+        <v>0.05239379869312262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>354</v>
@@ -3630,19 +3630,19 @@
         <v>388395</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>350478</v>
+        <v>348857</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>423534</v>
+        <v>429191</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1099613737136961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09922650166398851</v>
+        <v>0.09876772199949603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1199098280197979</v>
+        <v>0.1215115226673534</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>503</v>
@@ -3651,19 +3651,19 @@
         <v>541568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>495747</v>
+        <v>492472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>584048</v>
+        <v>584875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07837773933150513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07174636169042178</v>
+        <v>0.07127235132657328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08452561768114014</v>
+        <v>0.08464529486803589</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3224445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3199913</v>
+        <v>3200652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3246840</v>
+        <v>3248666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9546504407227941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9473876068782192</v>
+        <v>0.9476062013068774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9612808682949935</v>
+        <v>0.961821689504232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2972</v>
@@ -3701,19 +3701,19 @@
         <v>3143705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3108566</v>
+        <v>3102909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3181622</v>
+        <v>3183243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8900386262863039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8800901719802021</v>
+        <v>0.8784884773326463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9007734983360114</v>
+        <v>0.901232278000504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6038</v>
@@ -3722,19 +3722,19 @@
         <v>6368150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6325670</v>
+        <v>6324843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6413971</v>
+        <v>6417246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9216222606684948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9154743823188599</v>
+        <v>0.915354705131964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9282536383095783</v>
+        <v>0.9287276486734268</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>28660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20291</v>
+        <v>20105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40536</v>
+        <v>41431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04953896753085551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03507350209618396</v>
+        <v>0.03475183602829374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07006689034571981</v>
+        <v>0.07161376734432183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -4086,19 +4086,19 @@
         <v>62931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51858</v>
+        <v>52505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74965</v>
+        <v>75209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07655448831899844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06308500469525739</v>
+        <v>0.06387137944636473</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09119374039657339</v>
+        <v>0.09149105060181488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -4107,19 +4107,19 @@
         <v>91590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78094</v>
+        <v>77906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107502</v>
+        <v>108671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06539524331256329</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05575906086523351</v>
+        <v>0.05562463885984417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07675583927101348</v>
+        <v>0.07759061517832258</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>549869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537993</v>
+        <v>537098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>558238</v>
+        <v>558424</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9504610324691445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9299331096542802</v>
+        <v>0.9283862326556782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9649264979038163</v>
+        <v>0.9652481639717062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1322</v>
@@ -4157,19 +4157,19 @@
         <v>759107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>747073</v>
+        <v>746829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>770180</v>
+        <v>769533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9234455116810015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9088062596034268</v>
+        <v>0.9085089493981854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9369149953047425</v>
+        <v>0.9361286205536352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1980</v>
@@ -4178,19 +4178,19 @@
         <v>1308977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1293065</v>
+        <v>1291896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1322473</v>
+        <v>1322661</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9346047566874368</v>
+        <v>0.9346047566874367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9232441607289867</v>
+        <v>0.9224093848216777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9442409391347665</v>
+        <v>0.9443753611401559</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>73762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57459</v>
+        <v>56680</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94420</v>
+        <v>95045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03306857777379782</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02575983922257386</v>
+        <v>0.02541052345994852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04233019405736064</v>
+        <v>0.0426100389951085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -4303,19 +4303,19 @@
         <v>95534</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81091</v>
+        <v>78463</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114896</v>
+        <v>112559</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04399656826251445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03734516719455416</v>
+        <v>0.03613496556907844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05291367339228206</v>
+        <v>0.05183731575485969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -4324,19 +4324,19 @@
         <v>169295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146848</v>
+        <v>146680</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198708</v>
+        <v>196469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03845912215105986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03335975574106562</v>
+        <v>0.0333216207060445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04514089499898128</v>
+        <v>0.04463208178986838</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2156804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2136146</v>
+        <v>2135521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2173107</v>
+        <v>2173886</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9669314222262022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9576698059426395</v>
+        <v>0.9573899610048915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9742401607774258</v>
+        <v>0.9745894765400513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2788</v>
@@ -4374,19 +4374,19 @@
         <v>2075858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2056496</v>
+        <v>2058833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2090301</v>
+        <v>2092929</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9560034317374857</v>
+        <v>0.9560034317374854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9470863266077179</v>
+        <v>0.9481626842451403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9626548328054459</v>
+        <v>0.9638650344309214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4712</v>
@@ -4395,19 +4395,19 @@
         <v>4232664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4203251</v>
+        <v>4205490</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4255111</v>
+        <v>4255279</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.96154087784894</v>
+        <v>0.9615408778489403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9548591050010187</v>
+        <v>0.955367918210131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666402442589342</v>
+        <v>0.9666783792939555</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>18297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10499</v>
+        <v>10660</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29225</v>
+        <v>29120</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02571346767664528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01475464779985499</v>
+        <v>0.01498054237936084</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04107005352050871</v>
+        <v>0.04092239726638145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -4520,19 +4520,19 @@
         <v>20595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13146</v>
+        <v>14287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30532</v>
+        <v>31639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02802501379345192</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01788851884623869</v>
+        <v>0.01944114923377234</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04154651003343739</v>
+        <v>0.0430537579411099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -4541,19 +4541,19 @@
         <v>38892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28578</v>
+        <v>28484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52629</v>
+        <v>53517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02688785041868942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01975701922019512</v>
+        <v>0.01969184529532802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03638464539292589</v>
+        <v>0.03699876304940492</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>693290</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>682362</v>
+        <v>682467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>701088</v>
+        <v>700927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9742865323233547</v>
+        <v>0.9742865323233546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9589299464794916</v>
+        <v>0.9590776027336188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985245352200145</v>
+        <v>0.9850194576206396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>977</v>
@@ -4591,19 +4591,19 @@
         <v>714282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704345</v>
+        <v>703238</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721731</v>
+        <v>720590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9719749862065479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9584534899665635</v>
+        <v>0.9569462420588901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9821114811537613</v>
+        <v>0.9805588507662277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1641</v>
@@ -4612,19 +4612,19 @@
         <v>1407572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1393835</v>
+        <v>1392947</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1417886</v>
+        <v>1417980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9731121495813106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.963615354607074</v>
+        <v>0.963001236950595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.980242980779805</v>
+        <v>0.980308154704672</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>120719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97529</v>
+        <v>98815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146981</v>
+        <v>145008</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03428845590062775</v>
+        <v>0.03428845590062776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02770168144168151</v>
+        <v>0.02806712164400324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04174795259210283</v>
+        <v>0.04118757447977217</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>265</v>
@@ -4737,19 +4737,19 @@
         <v>179059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157891</v>
+        <v>157986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203115</v>
+        <v>206639</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04802700603832936</v>
+        <v>0.04802700603832935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04234914195328043</v>
+        <v>0.04237460029167806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0544790723690106</v>
+        <v>0.05542445916664418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>383</v>
@@ -4758,19 +4758,19 @@
         <v>299778</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270078</v>
+        <v>269636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>333242</v>
+        <v>337593</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04135447970977614</v>
+        <v>0.04135447970977615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03725738234389067</v>
+        <v>0.03719630163022744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04597080626950866</v>
+        <v>0.0465709900215475</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3399964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3373702</v>
+        <v>3375675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3423154</v>
+        <v>3421868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9657115440993721</v>
+        <v>0.9657115440993724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9582520474078972</v>
+        <v>0.9588124255202277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9722983185583185</v>
+        <v>0.9719328783559971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5087</v>
@@ -4808,19 +4808,19 @@
         <v>3549248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3525192</v>
+        <v>3521668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3570416</v>
+        <v>3570321</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9519729939616707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9455209276309894</v>
+        <v>0.9445755408333563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9576508580467195</v>
+        <v>0.9576253997083224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8333</v>
@@ -4829,19 +4829,19 @@
         <v>6949212</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6915748</v>
+        <v>6911397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6978912</v>
+        <v>6979354</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9586455202902238</v>
+        <v>0.9586455202902239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9540291937304912</v>
+        <v>0.953429009978453</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9627426176561094</v>
+        <v>0.9628036983697724</v>
       </c>
     </row>
     <row r="15">
